--- a/data/trans_orig/P19C10_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E9F1FA3-8E7D-4C8E-941C-FA21E2281D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F6A659-D8A1-4C27-8F1C-BFF51EC57C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6321FDB1-EEA4-42F0-8564-E739BCBCF49A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34CB5003-2F44-414A-AA05-3512F298A06D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -83,16 +83,16 @@
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,18%</t>
+    <t>0,19%</t>
   </si>
   <si>
     <t>1,62%</t>
@@ -113,10 +113,10 @@
     <t>98,78%</t>
   </si>
   <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>99,4%</t>
@@ -125,7 +125,7 @@
     <t>98,38%</t>
   </si>
   <si>
-    <t>99,82%</t>
+    <t>99,81%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -134,13 +134,13 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,2%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,06%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -149,142 +149,154 @@
     <t>0,02%</t>
   </si>
   <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
   <si>
     <t>99,94%</t>
@@ -293,70 +305,70 @@
     <t>65 y más</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -771,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF2CE7-8970-44E0-A001-08B78DDF40F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC64022-A544-4BE7-972D-C6818115F100}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1378,10 +1390,10 @@
         <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1393,10 +1405,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,10 +1423,10 @@
         <v>700355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1426,13 +1438,13 @@
         <v>729148</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>1748</v>
@@ -1444,10 +1456,10 @@
         <v>38</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,7 +1515,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1521,7 +1533,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1530,13 +1542,13 @@
         <v>2730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -1545,13 +1557,13 @@
         <v>2730</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1569,7 +1581,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -1581,28 +1593,28 @@
         <v>579613</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>1622</v>
       </c>
       <c r="N17" s="7">
-        <v>1164383</v>
+        <v>1164384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,7 +1656,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1167114</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -1658,7 +1670,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1670,13 +1682,13 @@
         <v>1284</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -1685,13 +1697,13 @@
         <v>7607</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -1700,13 +1712,13 @@
         <v>8891</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,10 +1733,10 @@
         <v>679178</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -1736,13 +1748,13 @@
         <v>990523</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>2644</v>
@@ -1751,13 +1763,13 @@
         <v>1669701</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,13 +1837,13 @@
         <v>10734</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -1843,10 +1855,10 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -1855,13 +1867,13 @@
         <v>32856</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1888,13 @@
         <v>3266404</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="H23" s="7">
         <v>5185</v>
@@ -1894,10 +1906,10 @@
         <v>27</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>8429</v>
@@ -1906,13 +1918,13 @@
         <v>6961130</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,7 +1980,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C10_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F6A659-D8A1-4C27-8F1C-BFF51EC57C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF234DE-F2DF-43B6-8046-7EE565706A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34CB5003-2F44-414A-AA05-3512F298A06D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A236561-C322-4B64-9167-B18D42D43D25}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -783,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC64022-A544-4BE7-972D-C6818115F100}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA2B620-6772-483E-919C-8FB8B6D18926}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P19C10_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF234DE-F2DF-43B6-8046-7EE565706A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80053EF3-77E4-46AC-9EC0-BF024880F983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A236561-C322-4B64-9167-B18D42D43D25}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CF809DD-9C9D-4E43-B209-06863357DA6D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -83,292 +83,280 @@
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>99,81%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -783,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA2B620-6772-483E-919C-8FB8B6D18926}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6DAD4A-D2ED-4D29-AC67-019AB18C054F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1390,10 +1378,10 @@
         <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1405,10 +1393,10 @@
         <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,10 +1411,10 @@
         <v>700355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1438,13 +1426,13 @@
         <v>729148</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>1748</v>
@@ -1456,10 +1444,10 @@
         <v>38</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1515,7 +1503,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1533,7 +1521,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1542,13 +1530,13 @@
         <v>2730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -1557,13 +1545,13 @@
         <v>2730</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,7 +1569,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -1593,28 +1581,28 @@
         <v>579613</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>1622</v>
       </c>
       <c r="N17" s="7">
-        <v>1164384</v>
+        <v>1164383</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,7 +1644,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167114</v>
+        <v>1167113</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -1670,7 +1658,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1682,13 +1670,13 @@
         <v>1284</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -1697,13 +1685,13 @@
         <v>7607</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -1712,13 +1700,13 @@
         <v>8891</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,10 +1721,10 @@
         <v>679178</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -1748,13 +1736,13 @@
         <v>990523</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>2644</v>
@@ -1763,13 +1751,13 @@
         <v>1669701</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,13 +1825,13 @@
         <v>10734</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -1855,10 +1843,10 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -1867,13 +1855,13 @@
         <v>32856</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,13 +1876,13 @@
         <v>3266404</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>5185</v>
@@ -1906,10 +1894,10 @@
         <v>27</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7">
         <v>8429</v>
@@ -1918,13 +1906,13 @@
         <v>6961130</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,7 +1968,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C10_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80053EF3-77E4-46AC-9EC0-BF024880F983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E25991B1-8D2A-4D5F-9888-789D4680A490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CF809DD-9C9D-4E43-B209-06863357DA6D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{060135E9-5F87-4A47-8663-8DAA7209A44C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="129">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,283 +80,346 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -771,8 +834,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6DAD4A-D2ED-4D29-AC67-019AB18C054F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F2BDE8-D912-46C5-8577-01A6614464F6}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -907,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>4197</v>
+        <v>3563</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -922,7 +985,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>4197</v>
+        <v>3563</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -943,7 +1006,7 @@
         <v>157</v>
       </c>
       <c r="D5" s="7">
-        <v>357758</v>
+        <v>383447</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -958,7 +1021,7 @@
         <v>192</v>
       </c>
       <c r="I5" s="7">
-        <v>340299</v>
+        <v>299978</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -973,7 +1036,7 @@
         <v>349</v>
       </c>
       <c r="N5" s="7">
-        <v>698057</v>
+        <v>683425</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -994,7 +1057,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="7">
-        <v>357758</v>
+        <v>383447</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -1009,7 +1072,7 @@
         <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>344496</v>
+        <v>303541</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -1024,7 +1087,7 @@
         <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>702254</v>
+        <v>686988</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -1047,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1944</v>
+        <v>1643</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -1062,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1324</v>
+        <v>1207</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1077,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>3268</v>
+        <v>2850</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>35</v>
@@ -1098,7 +1161,7 @@
         <v>280</v>
       </c>
       <c r="D8" s="7">
-        <v>405256</v>
+        <v>400708</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
@@ -1113,7 +1176,7 @@
         <v>440</v>
       </c>
       <c r="I8" s="7">
-        <v>484551</v>
+        <v>498485</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
@@ -1128,7 +1191,7 @@
         <v>720</v>
       </c>
       <c r="N8" s="7">
-        <v>889807</v>
+        <v>899192</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>42</v>
@@ -1149,7 +1212,7 @@
         <v>281</v>
       </c>
       <c r="D9" s="7">
-        <v>407200</v>
+        <v>402351</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -1164,7 +1227,7 @@
         <v>442</v>
       </c>
       <c r="I9" s="7">
-        <v>485875</v>
+        <v>499692</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -1179,7 +1242,7 @@
         <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>893075</v>
+        <v>902042</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -1202,46 +1265,46 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>5267</v>
+        <v>5222</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1604</v>
+        <v>1462</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>6872</v>
+        <v>6684</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1253,28 +1316,28 @@
         <v>523</v>
       </c>
       <c r="D11" s="7">
-        <v>539088</v>
+        <v>518820</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>823</v>
       </c>
       <c r="I11" s="7">
-        <v>570592</v>
+        <v>530419</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -1283,16 +1346,16 @@
         <v>1346</v>
       </c>
       <c r="N11" s="7">
-        <v>1109680</v>
+        <v>1049239</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1304,7 +1367,7 @@
         <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>544355</v>
+        <v>524042</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -1319,7 +1382,7 @@
         <v>825</v>
       </c>
       <c r="I12" s="7">
-        <v>572196</v>
+        <v>531881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -1334,7 +1397,7 @@
         <v>1352</v>
       </c>
       <c r="N12" s="7">
-        <v>1116552</v>
+        <v>1055923</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -1348,7 +1411,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1357,46 +1420,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>2239</v>
+        <v>2224</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>4659</v>
+        <v>4331</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>6898</v>
+        <v>6555</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1408,13 +1471,13 @@
         <v>639</v>
       </c>
       <c r="D14" s="7">
-        <v>700355</v>
+        <v>860704</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1423,31 +1486,31 @@
         <v>1109</v>
       </c>
       <c r="I14" s="7">
-        <v>729148</v>
+        <v>696261</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>1748</v>
       </c>
       <c r="N14" s="7">
-        <v>1429502</v>
+        <v>1556964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,7 +1522,7 @@
         <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>702594</v>
+        <v>862928</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -1474,7 +1537,7 @@
         <v>1117</v>
       </c>
       <c r="I15" s="7">
-        <v>733807</v>
+        <v>700592</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -1489,7 +1552,7 @@
         <v>1758</v>
       </c>
       <c r="N15" s="7">
-        <v>1436400</v>
+        <v>1563519</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -1503,7 +1566,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1521,37 +1584,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2730</v>
+        <v>2438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>2730</v>
+        <v>2438</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,13 +1626,13 @@
         <v>645</v>
       </c>
       <c r="D17" s="7">
-        <v>584770</v>
+        <v>546579</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -1578,31 +1641,31 @@
         <v>977</v>
       </c>
       <c r="I17" s="7">
-        <v>579613</v>
+        <v>532088</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>1622</v>
       </c>
       <c r="N17" s="7">
-        <v>1164383</v>
+        <v>1078667</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,7 +1677,7 @@
         <v>645</v>
       </c>
       <c r="D18" s="7">
-        <v>584770</v>
+        <v>546579</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -1629,7 +1692,7 @@
         <v>981</v>
       </c>
       <c r="I18" s="7">
-        <v>582343</v>
+        <v>534526</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -1644,7 +1707,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1081105</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -1658,55 +1721,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1284</v>
+        <v>477</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H19" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>7607</v>
+        <v>2809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>8891</v>
+        <v>3286</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,49 +1778,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1000</v>
+        <v>555</v>
       </c>
       <c r="D20" s="7">
-        <v>679178</v>
+        <v>358876</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="7">
-        <v>1644</v>
+        <v>802</v>
       </c>
       <c r="I20" s="7">
-        <v>990523</v>
+        <v>597100</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
-        <v>2644</v>
+        <v>1357</v>
       </c>
       <c r="N20" s="7">
-        <v>1669701</v>
+        <v>955976</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,10 +1829,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1002</v>
+        <v>556</v>
       </c>
       <c r="D21" s="7">
-        <v>680462</v>
+        <v>359353</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -1781,10 +1844,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>1657</v>
+        <v>807</v>
       </c>
       <c r="I21" s="7">
-        <v>998130</v>
+        <v>599909</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -1796,10 +1859,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>2659</v>
+        <v>1363</v>
       </c>
       <c r="N21" s="7">
-        <v>1678592</v>
+        <v>959262</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -1813,55 +1876,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>711</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="7">
+        <v>8</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4051</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M22" s="7">
         <v>9</v>
       </c>
-      <c r="D22" s="7">
-        <v>10734</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="7">
-        <v>32</v>
-      </c>
-      <c r="I22" s="7">
-        <v>22122</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M22" s="7">
-        <v>41</v>
-      </c>
       <c r="N22" s="7">
-        <v>32856</v>
+        <v>4762</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,49 +1933,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3244</v>
+        <v>445</v>
       </c>
       <c r="D23" s="7">
-        <v>3266404</v>
+        <v>274810</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
-        <v>5185</v>
+        <v>842</v>
       </c>
       <c r="I23" s="7">
-        <v>3694726</v>
+        <v>404636</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
-        <v>8429</v>
+        <v>1287</v>
       </c>
       <c r="N23" s="7">
-        <v>6961130</v>
+        <v>679446</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,63 +1984,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>446</v>
+      </c>
+      <c r="D24" s="7">
+        <v>275521</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>850</v>
+      </c>
+      <c r="I24" s="7">
+        <v>408687</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1296</v>
+      </c>
+      <c r="N24" s="7">
+        <v>684208</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10277</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="7">
+        <v>32</v>
+      </c>
+      <c r="I25" s="7">
+        <v>19862</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" s="7">
+        <v>41</v>
+      </c>
+      <c r="N25" s="7">
+        <v>30139</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3244</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3343944</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5185</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3558965</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8429</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6902909</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3253</v>
       </c>
-      <c r="D24" s="7">
-        <v>3277138</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3354221</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>5217</v>
       </c>
-      <c r="I24" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3578827</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>8470</v>
       </c>
-      <c r="N24" s="7">
-        <v>6993986</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>107</v>
+      <c r="N27" s="7">
+        <v>6933048</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
